--- a/upload/format_siswa_baru.xlsx
+++ b/upload/format_siswa_baru.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">NO</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">PASSWORD</t>
   </si>
   <si>
+    <t xml:space="preserve">KELAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yoyo</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XI MIPA 1</t>
   </si>
 </sst>
 </file>
@@ -231,10 +237,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -278,16 +284,19 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>128301</v>
@@ -296,13 +305,16 @@
         <v>8192391283</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
